--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691758A6-DAEA-4948-ABF4-AEE44473F730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88843049-49E7-4F27-8DB4-706F804B1FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaD,WaD,FaP,SaP,SaD,RaP,FaD,WaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,RaP,SaN,WaN,RaN,WaP,FaN</t>
+    <t>SaD,FaD,WaD,FaP,SaP,RaP,RaD,WaP</t>
+  </si>
+  <si>
+    <t>FaP,SaP,WaP,RaP,FaN,SaN,WaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,RaP,SaN,WaN,RaN,WaP,FaN</v>
+        <v>FaP,SaP,WaP,RaP,FaN,SaN,WaN,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,WaD,FaP,SaP,SaD,RaP,FaD,WaP</v>
+        <v>SaD,FaD,WaD,FaP,SaP,RaP,RaD,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C631C6DC-7B4E-4BEF-B898-79F5A6505790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5C0B5E-7025-419B-8D91-5BABB291DFB0}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6922F09C-7090-4CCA-B9E3-CDC9D67F3F8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F997E73-6E30-4E84-9678-ACD70ED75BE4}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0.37720278814821206</v>
+        <v>0.21084615550616106</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1796,7 +1796,7 @@
         <v>75</v>
       </c>
       <c r="N6">
-        <v>0.23847730853061139</v>
+        <v>0.23847730853061133</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N7">
-        <v>0.21084615550616112</v>
+        <v>0.37720278814821206</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5973896F-9473-403E-AEDB-ACA642B09614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B8970D-23C2-443F-B966-1C30DF311CEB}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_JPN/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_JPN/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_JPN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88843049-49E7-4F27-8DB4-706F804B1FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B58DCA-8E14-475E-8A68-0E1B21B754C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>SaD,FaD,WaD,FaP,SaP,RaP,RaD,WaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,WaP,RaP,FaN,SaN,WaN,RaN</t>
+    <t>FaD,SaD,RaD,WaD,WaP,FaP,SaP,RaP</t>
+  </si>
+  <si>
+    <t>RaP,FaP,SaP,SaN,WaN,RaN,WaP,FaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,WaP,RaP,FaN,SaN,WaN,RaN</v>
+        <v>RaP,FaP,SaP,SaN,WaN,RaN,WaP,FaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>SaD,FaD,WaD,FaP,SaP,RaP,RaD,WaP</v>
+        <v>FaD,SaD,RaD,WaD,WaP,FaP,SaP,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5C0B5E-7025-419B-8D91-5BABB291DFB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E45C76F8-5290-4ED9-A525-4CBD1FC228D4}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F997E73-6E30-4E84-9678-ACD70ED75BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F9BDEA2-CC2C-497A-9A5D-23C8FE1F60C8}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>0.21084615550616106</v>
+        <v>0.37720278814821206</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N5">
-        <v>0.37347374781501536</v>
+        <v>0.21084615550616106</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1796,7 +1796,7 @@
         <v>75</v>
       </c>
       <c r="N6">
-        <v>0.23847730853061133</v>
+        <v>0.23847730853061139</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N7">
-        <v>0.37720278814821206</v>
+        <v>0.37347374781501541</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B8970D-23C2-443F-B966-1C30DF311CEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0849CF16-2158-463A-9C55-BECAFE5F227A}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
